--- a/Modelos em Python/14 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros test.xlsx
+++ b/Modelos em Python/14 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros test.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.502269660887704</v>
+        <v>5.502269660932908</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3778696137703234</v>
+        <v>0.3778696137730636</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1391650268971774</v>
+        <v>0.1391650268980711</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.742658062566383</v>
+        <v>5.74265840590358</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3843597318720338</v>
+        <v>0.3843597609017044</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1546229060527773</v>
+        <v>0.1546229064862538</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.605844389600117</v>
+        <v>5.605844389595309</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3852677078725422</v>
+        <v>0.3852677078723222</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1406361424886972</v>
+        <v>0.1406361424881719</v>
       </c>
     </row>
     <row r="5">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.975325465530489</v>
+        <v>4.967520222595997</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3377531472518747</v>
+        <v>0.3372663663126825</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1274449534905497</v>
+        <v>0.1273200127281723</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.335107752566485</v>
+        <v>5.295338645092267</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3637865016130415</v>
+        <v>0.3610930380113464</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1370514250997477</v>
+        <v>0.1362523454040878</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.732820839250624</v>
+        <v>5.732820839250665</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3835362955395741</v>
+        <v>0.3835362955395769</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1545978234827858</v>
+        <v>0.1545978234827863</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.72000484106818</v>
+        <v>5.72000466191806</v>
       </c>
       <c r="C9" t="n">
-        <v>0.383114092435777</v>
+        <v>0.3831140813348473</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1540278408567773</v>
+        <v>0.1540278396394289</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>55.48997129137353</v>
+        <v>6.556874199691354</v>
       </c>
       <c r="C10" t="n">
-        <v>11.37640839080407</v>
+        <v>0.5814204975661607</v>
       </c>
       <c r="D10" t="n">
-        <v>2.489280404352283</v>
+        <v>0.1466317807477452</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.786501898088001</v>
+        <v>7.802251598862064</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5720673833338868</v>
+        <v>0.5734102191174658</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2067767242197365</v>
+        <v>0.2072017129045015</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.373073127895418</v>
+        <v>7.90047927467872</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7104198491934574</v>
+        <v>0.5817582886026362</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2453443782298203</v>
+        <v>0.2091218421695803</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.465453737077326</v>
+        <v>7.383736928058548</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4650409864622796</v>
+        <v>0.542791897780657</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1568888215965603</v>
+        <v>0.1735853382385902</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/14 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros test.xlsx
+++ b/Modelos em Python/14 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros test.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.802251598862064</v>
+        <v>7.79767051391346</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5734102191174658</v>
+        <v>0.5730139132180107</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2072017129045015</v>
+        <v>0.2069747242822547</v>
       </c>
     </row>
     <row r="12">
